--- a/Code/Results/Cases/Case_2_226/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_226/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.15011293388058</v>
+        <v>13.15711527934083</v>
       </c>
       <c r="C2">
-        <v>7.048182859932589</v>
+        <v>9.507500842551332</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.281564949737124</v>
+        <v>12.31010733205617</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.118982585896854</v>
+        <v>3.67370076900547</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.20374631241994</v>
+        <v>9.51272387475216</v>
       </c>
       <c r="L2">
-        <v>6.770815313334554</v>
+        <v>9.674374248543929</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.87877195964996</v>
+        <v>26.39833995594997</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.22899984484287</v>
+        <v>12.91138551549956</v>
       </c>
       <c r="C3">
-        <v>7.089296863411517</v>
+        <v>9.523817829127104</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.161307566358163</v>
+        <v>12.32427450954421</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.123958561861635</v>
+        <v>3.675518580036462</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.56443674997705</v>
+        <v>9.334829133675077</v>
       </c>
       <c r="L3">
-        <v>6.57174264233493</v>
+        <v>9.660328570691391</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.1107610861475</v>
+        <v>26.52241905086471</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.65760323200771</v>
+        <v>12.76030167277629</v>
       </c>
       <c r="C4">
-        <v>7.116164335346263</v>
+        <v>9.534609895631672</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.092084906592826</v>
+        <v>12.33536143106583</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.127105178470044</v>
+        <v>3.676693450436933</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.1516341729136</v>
+        <v>9.225063713339681</v>
       </c>
       <c r="L4">
-        <v>6.44984595605708</v>
+        <v>9.653318617484461</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.26721312391873</v>
+        <v>26.60404110615973</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.41795138993794</v>
+        <v>12.69876423388834</v>
       </c>
       <c r="C5">
-        <v>7.127519153729938</v>
+        <v>9.539202751851603</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.065043732135949</v>
+        <v>12.34047991442854</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.12841098437343</v>
+        <v>3.677187033118872</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.978368244256698</v>
+        <v>9.180254892645925</v>
       </c>
       <c r="L5">
-        <v>6.400322729531786</v>
+        <v>9.650870277145682</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.33433808152597</v>
+        <v>26.63866875167222</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.3777498742891</v>
+        <v>12.68855025171985</v>
       </c>
       <c r="C6">
-        <v>7.129429083680098</v>
+        <v>9.539977185383899</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.060624226398401</v>
+        <v>12.34136609651463</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.128629249883059</v>
+        <v>3.677269888198784</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.94929462572831</v>
+        <v>9.172811358057302</v>
       </c>
       <c r="L6">
-        <v>6.392110539871486</v>
+        <v>9.650488455174278</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.34568337075939</v>
+        <v>26.64450111502197</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.6543986012885</v>
+        <v>12.75947152469618</v>
       </c>
       <c r="C7">
-        <v>7.1163158286738</v>
+        <v>9.534671046234921</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.091715485388926</v>
+        <v>12.335428029639</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.127122693007503</v>
+        <v>3.676700047025236</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.14931779887331</v>
+        <v>9.224459648142386</v>
       </c>
       <c r="L7">
-        <v>6.44917736825449</v>
+        <v>9.653283942277662</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.26810494599318</v>
+        <v>26.60450257737637</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.82583093880311</v>
+        <v>13.07247881974478</v>
       </c>
       <c r="C8">
-        <v>7.062020727265798</v>
+        <v>9.512966744786851</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.239147258479404</v>
+        <v>12.31449651079755</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.120679691181692</v>
+        <v>3.67431538922132</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.98754311223571</v>
+        <v>9.451530826698756</v>
       </c>
       <c r="L8">
-        <v>6.702144391146918</v>
+        <v>9.669197786616309</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.95575820225517</v>
+        <v>26.43999326512886</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.03423837566015</v>
+        <v>13.68115299547711</v>
       </c>
       <c r="C9">
-        <v>6.968533320254483</v>
+        <v>9.476517572475293</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.564450975030674</v>
+        <v>12.29239626232223</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.108742834259925</v>
+        <v>3.670102949827121</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.46911292253555</v>
+        <v>9.890142222475481</v>
       </c>
       <c r="L9">
-        <v>7.198148524426502</v>
+        <v>9.713097379138883</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.46190868117405</v>
+        <v>26.16058421412795</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.49362549635163</v>
+        <v>14.12069175588696</v>
       </c>
       <c r="C10">
-        <v>6.907926685376239</v>
+        <v>9.453433233786766</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.824800830063609</v>
+        <v>12.28769650976384</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.10035845268848</v>
+        <v>3.667287903062296</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.45780342928831</v>
+        <v>10.20522348589404</v>
       </c>
       <c r="L10">
-        <v>7.559230105100504</v>
+        <v>9.75291910300581</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.18272292209701</v>
+        <v>25.98170757956153</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.12291483169547</v>
+        <v>14.31808948887122</v>
       </c>
       <c r="C11">
-        <v>6.882150727978644</v>
+        <v>9.443727205380819</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.947698142736044</v>
+        <v>12.28805709700324</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.096618530897281</v>
+        <v>3.666067399846323</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.88592391753545</v>
+        <v>10.34639441778304</v>
       </c>
       <c r="L11">
-        <v>7.722185131906105</v>
+        <v>9.772637148831583</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.07662976023027</v>
+        <v>25.90608252303467</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.35630246870547</v>
+        <v>14.39240204569349</v>
       </c>
       <c r="C12">
-        <v>6.872652032010659</v>
+        <v>9.440165600464171</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.994861984117366</v>
+        <v>12.28855200220162</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.095212161950979</v>
+        <v>3.665613818350168</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.04494119432246</v>
+        <v>10.39949382527437</v>
       </c>
       <c r="L12">
-        <v>7.78366352478454</v>
+        <v>9.780330425770702</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.03971222513542</v>
+        <v>25.8782733077306</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.30625562400335</v>
+        <v>14.37641805985358</v>
       </c>
       <c r="C13">
-        <v>6.874686020045244</v>
+        <v>9.44092759964893</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.984676852957792</v>
+        <v>12.28842949438294</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.095514623667546</v>
+        <v>3.665711123574549</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.01083175021616</v>
+        <v>10.38807462064072</v>
       </c>
       <c r="L13">
-        <v>7.770433843570239</v>
+        <v>9.778663534776532</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.04751401138928</v>
+        <v>25.88422564672064</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.14221381475622</v>
+        <v>14.32421239151247</v>
       </c>
       <c r="C14">
-        <v>6.881363986913722</v>
+        <v>9.443431910891556</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.951565900886296</v>
+        <v>12.2880906371561</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.096502635325159</v>
+        <v>3.66602991137561</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.89906846923933</v>
+        <v>10.35077039833399</v>
       </c>
       <c r="L14">
-        <v>7.727247805998094</v>
+        <v>9.773265564247739</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.07352574523154</v>
+        <v>25.90377802928037</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.04109590036631</v>
+        <v>14.29217587625558</v>
       </c>
       <c r="C15">
-        <v>6.885488695313918</v>
+        <v>9.444980687112206</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.931365438686974</v>
+        <v>12.28792971515047</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.097109079925765</v>
+        <v>3.666226296390594</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.83020656601208</v>
+        <v>10.32787235449982</v>
       </c>
       <c r="L15">
-        <v>7.700764135309179</v>
+        <v>9.769988522388903</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.08989066848048</v>
+        <v>25.91586236339293</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.45180926756815</v>
+        <v>14.10773387418236</v>
       </c>
       <c r="C16">
-        <v>6.909647650879896</v>
+        <v>9.454083504567286</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.816857589916891</v>
+        <v>12.28772314683505</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.100604290113111</v>
+        <v>3.667368871076706</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.42938991555301</v>
+        <v>10.19594996382686</v>
       </c>
       <c r="L16">
-        <v>7.548550681521061</v>
+        <v>9.751662399678798</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.19009816167502</v>
+        <v>25.98676566242215</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.08148565469556</v>
+        <v>13.99387971736543</v>
       </c>
       <c r="C17">
-        <v>6.924930734857668</v>
+        <v>9.459871099968451</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.747741969681934</v>
+        <v>12.2882357632972</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.10276692818986</v>
+        <v>3.668085160309607</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.17796358758956</v>
+        <v>10.11443117854195</v>
       </c>
       <c r="L17">
-        <v>7.454807290739747</v>
+        <v>9.740827688289011</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.25710065688644</v>
+        <v>26.03173582017232</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.86522529013608</v>
+        <v>13.92815773704385</v>
       </c>
       <c r="C18">
-        <v>6.933889781893522</v>
+        <v>9.463274844071954</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.708409545824622</v>
+        <v>12.28876584858339</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.104017853604577</v>
+        <v>3.668502808040293</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.03131193962307</v>
+        <v>10.06734302676087</v>
       </c>
       <c r="L18">
-        <v>7.40076806104224</v>
+        <v>9.734746982218558</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.29759076144534</v>
+        <v>26.05814226237912</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.7914414234121</v>
+        <v>13.90586708086286</v>
       </c>
       <c r="C19">
-        <v>6.93695200406625</v>
+        <v>9.464440167561024</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.695165086320747</v>
+        <v>12.28898575420881</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.104442627170469</v>
+        <v>3.668645189292553</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.98130804546283</v>
+        <v>10.05136683016373</v>
       </c>
       <c r="L19">
-        <v>7.382451982944575</v>
+        <v>9.732714235331111</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.31162792349313</v>
+        <v>26.06717585339907</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.12124417877932</v>
+        <v>14.00602464619022</v>
       </c>
       <c r="C20">
-        <v>6.923286344476762</v>
+        <v>9.459247255078829</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.755055988653089</v>
+        <v>12.28815685380925</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.102535989449376</v>
+        <v>3.668008324914997</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.20493921826657</v>
+        <v>10.12313012219383</v>
       </c>
       <c r="L20">
-        <v>7.464799229510584</v>
+        <v>9.741965448413833</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.24976433679864</v>
+        <v>26.02689268557317</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.19052962236771</v>
+        <v>14.33955888580841</v>
       </c>
       <c r="C21">
-        <v>6.879395358402543</v>
+        <v>9.442693247761104</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.961274548334005</v>
+        <v>12.28818045040184</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.096212171510896</v>
+        <v>3.665936042696909</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.93198015170064</v>
+        <v>10.3617376651712</v>
       </c>
       <c r="L21">
-        <v>7.739939113282904</v>
+        <v>9.774844965680542</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.06579497093689</v>
+        <v>25.89801252337419</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.86077810954428</v>
+        <v>14.55496157911283</v>
       </c>
       <c r="C22">
-        <v>6.852239955719446</v>
+        <v>9.432537672796535</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.099687894472165</v>
+        <v>12.29028408377276</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.092136237536311</v>
+        <v>3.664631774586567</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.38906781366262</v>
+        <v>10.51556880094988</v>
       </c>
       <c r="L22">
-        <v>7.918408341269599</v>
+        <v>9.797651697634615</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.96467723093726</v>
+        <v>25.81861111002218</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.5056483097469</v>
+        <v>14.44025568701306</v>
       </c>
       <c r="C23">
-        <v>6.866591868998942</v>
+        <v>9.437897349936025</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.025486513822047</v>
+        <v>12.28897062339385</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.094306701836642</v>
+        <v>3.665323317821454</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.14676064164732</v>
+        <v>10.43367474430163</v>
       </c>
       <c r="L23">
-        <v>7.823291738469258</v>
+        <v>9.78536010400366</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.01680905496064</v>
+        <v>25.86054660042144</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.10327980924383</v>
+        <v>14.0005347460539</v>
       </c>
       <c r="C24">
-        <v>6.92402923606651</v>
+        <v>9.459529057406291</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.751748063952256</v>
+        <v>12.28819179555823</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.102640373134006</v>
+        <v>3.668043043991194</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.19275008756644</v>
+        <v>10.11919801729163</v>
       </c>
       <c r="L24">
-        <v>7.460282322096262</v>
+        <v>9.741450604782568</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.25307497140489</v>
+        <v>26.02908054584444</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.46571692022201</v>
+        <v>13.51751842330736</v>
       </c>
       <c r="C25">
-        <v>6.992418350436658</v>
+        <v>9.48572690501922</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.472640079014127</v>
+        <v>12.29634719446753</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.111901332122773</v>
+        <v>3.671193172656671</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.08581246032599</v>
+        <v>9.772528901530826</v>
       </c>
       <c r="L25">
-        <v>7.064332968311654</v>
+        <v>9.699878943841593</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.5816946920375</v>
+        <v>26.23154026299241</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_226/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_226/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.15711527934083</v>
+        <v>14.15011293388063</v>
       </c>
       <c r="C2">
-        <v>9.507500842551332</v>
+        <v>7.048182859932455</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.31010733205617</v>
+        <v>8.281564949737124</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.67370076900547</v>
+        <v>2.11898258589672</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.51272387475216</v>
+        <v>11.20374631241997</v>
       </c>
       <c r="L2">
-        <v>9.674374248543929</v>
+        <v>6.770815313334613</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.39833995594997</v>
+        <v>16.87877195964989</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.91138551549956</v>
+        <v>13.22899984484287</v>
       </c>
       <c r="C3">
-        <v>9.523817829127104</v>
+        <v>7.08929686341164</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.32427450954421</v>
+        <v>8.161307566358218</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.675518580036462</v>
+        <v>2.123958561861767</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.334829133675077</v>
+        <v>10.56443674997704</v>
       </c>
       <c r="L3">
-        <v>9.660328570691391</v>
+        <v>6.571742642334979</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.52241905086471</v>
+        <v>17.11076108614756</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.76030167277629</v>
+        <v>12.65760323200771</v>
       </c>
       <c r="C4">
-        <v>9.534609895631672</v>
+        <v>7.116164335346261</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.33536143106583</v>
+        <v>8.092084906592895</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.676693450436933</v>
+        <v>2.127105178470044</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.225063713339681</v>
+        <v>10.15163417291361</v>
       </c>
       <c r="L4">
-        <v>9.653318617484461</v>
+        <v>6.449845956057089</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.60404110615973</v>
+        <v>17.26721312391863</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.69876423388834</v>
+        <v>12.41795138993792</v>
       </c>
       <c r="C5">
-        <v>9.539202751851603</v>
+        <v>7.127519153729931</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.34047991442854</v>
+        <v>8.065043732135866</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.677187033118872</v>
+        <v>2.128410984373428</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.180254892645925</v>
+        <v>9.978368244256718</v>
       </c>
       <c r="L5">
-        <v>9.650870277145682</v>
+        <v>6.400322729531807</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.63866875167222</v>
+        <v>17.33433808152597</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.68855025171985</v>
+        <v>12.37774987428909</v>
       </c>
       <c r="C6">
-        <v>9.539977185383899</v>
+        <v>7.129429083679968</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.34136609651463</v>
+        <v>8.060624226398467</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.677269888198784</v>
+        <v>2.128629249883194</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.172811358057302</v>
+        <v>9.949294625728342</v>
       </c>
       <c r="L6">
-        <v>9.650488455174278</v>
+        <v>6.392110539871498</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.64450111502197</v>
+        <v>17.34568337075924</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.75947152469618</v>
+        <v>12.65439860128851</v>
       </c>
       <c r="C7">
-        <v>9.534671046234921</v>
+        <v>7.116315828673944</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.335428029639</v>
+        <v>8.091715485388971</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.676700047025236</v>
+        <v>2.127122693007235</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.224459648142386</v>
+        <v>10.14931779887327</v>
       </c>
       <c r="L7">
-        <v>9.653283942277662</v>
+        <v>6.44917736825445</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.60450257737637</v>
+        <v>17.26810494599323</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.07247881974478</v>
+        <v>13.82583093880311</v>
       </c>
       <c r="C8">
-        <v>9.512966744786851</v>
+        <v>7.062020727265928</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.31449651079755</v>
+        <v>8.239147258479356</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.67431538922132</v>
+        <v>2.120679691181826</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.451530826698756</v>
+        <v>10.98754311223572</v>
       </c>
       <c r="L8">
-        <v>9.669197786616309</v>
+        <v>6.702144391146921</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.43999326512886</v>
+        <v>16.95575820225514</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.68115299547711</v>
+        <v>16.03423837566008</v>
       </c>
       <c r="C9">
-        <v>9.476517572475293</v>
+        <v>6.968533320254622</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.29239626232223</v>
+        <v>8.564450975030706</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.670102949827121</v>
+        <v>2.108742834259924</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.890142222475481</v>
+        <v>12.46911292253553</v>
       </c>
       <c r="L9">
-        <v>9.713097379138883</v>
+        <v>7.198148524426511</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.16058421412795</v>
+        <v>16.4619086811741</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.12069175588696</v>
+        <v>17.49362549635167</v>
       </c>
       <c r="C10">
-        <v>9.453433233786766</v>
+        <v>6.907926685376236</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.28769650976384</v>
+        <v>8.824800830063584</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.667287903062296</v>
+        <v>2.100358452688213</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.20522348589404</v>
+        <v>13.45780342928833</v>
       </c>
       <c r="L10">
-        <v>9.75291910300581</v>
+        <v>7.559230105100514</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.98170757956153</v>
+        <v>16.18272292209689</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.31808948887122</v>
+        <v>18.12291483169547</v>
       </c>
       <c r="C11">
-        <v>9.443727205380819</v>
+        <v>6.882150727978646</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.28805709700324</v>
+        <v>8.947698142736098</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.666067399846323</v>
+        <v>2.096618530897146</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.34639441778304</v>
+        <v>13.88592391753545</v>
       </c>
       <c r="L11">
-        <v>9.772637148831583</v>
+        <v>7.722185131906145</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.90608252303467</v>
+        <v>16.07662976023033</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.39240204569349</v>
+        <v>18.3563024687055</v>
       </c>
       <c r="C12">
-        <v>9.440165600464171</v>
+        <v>6.872652032010659</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.28855200220162</v>
+        <v>8.994861984117394</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.665613818350168</v>
+        <v>2.095212161950981</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.39949382527437</v>
+        <v>14.0449411943225</v>
       </c>
       <c r="L12">
-        <v>9.780330425770702</v>
+        <v>7.783663524784548</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.8782733077306</v>
+        <v>16.03971222513541</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.37641805985358</v>
+        <v>18.30625562400337</v>
       </c>
       <c r="C13">
-        <v>9.44092759964893</v>
+        <v>6.874686020045244</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.28842949438294</v>
+        <v>8.984676852957802</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.665711123574549</v>
+        <v>2.095514623667813</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.38807462064072</v>
+        <v>14.01083175021622</v>
       </c>
       <c r="L13">
-        <v>9.778663534776532</v>
+        <v>7.770433843570207</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.88422564672064</v>
+        <v>16.04751401138912</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.32421239151247</v>
+        <v>18.14221381475624</v>
       </c>
       <c r="C14">
-        <v>9.443431910891556</v>
+        <v>6.88136398691397</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.2880906371561</v>
+        <v>8.951565900886299</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.66602991137561</v>
+        <v>2.096502635325025</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.35077039833399</v>
+        <v>13.89906846923935</v>
       </c>
       <c r="L14">
-        <v>9.773265564247739</v>
+        <v>7.727247805998058</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.90377802928037</v>
+        <v>16.07352574523142</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.29217587625558</v>
+        <v>18.04109590036638</v>
       </c>
       <c r="C15">
-        <v>9.444980687112206</v>
+        <v>6.885488695313796</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.28792971515047</v>
+        <v>8.931365438686917</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.666226296390594</v>
+        <v>2.097109079925899</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.32787235449982</v>
+        <v>13.83020656601215</v>
       </c>
       <c r="L15">
-        <v>9.769988522388903</v>
+        <v>7.700764135309143</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.91586236339293</v>
+        <v>16.08989066848045</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.10773387418236</v>
+        <v>17.45180926756818</v>
       </c>
       <c r="C16">
-        <v>9.454083504567286</v>
+        <v>6.909647650879766</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.28772314683505</v>
+        <v>8.816857589916937</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.667368871076706</v>
+        <v>2.10060429011338</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.19594996382686</v>
+        <v>13.42938991555302</v>
       </c>
       <c r="L16">
-        <v>9.751662399678798</v>
+        <v>7.548550681521098</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.98676566242215</v>
+        <v>16.19009816167492</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.99387971736543</v>
+        <v>17.08148565469554</v>
       </c>
       <c r="C17">
-        <v>9.459871099968451</v>
+        <v>6.924930734857543</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.2882357632972</v>
+        <v>8.747741969681872</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.668085160309607</v>
+        <v>2.102766928189861</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.11443117854195</v>
+        <v>13.17796358758953</v>
       </c>
       <c r="L17">
-        <v>9.740827688289011</v>
+        <v>7.454807290739765</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>26.03173582017232</v>
+        <v>16.25710065688651</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.92815773704385</v>
+        <v>16.86522529013611</v>
       </c>
       <c r="C18">
-        <v>9.463274844071954</v>
+        <v>6.933889781893382</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.28876584858339</v>
+        <v>8.708409545824667</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.668502808040293</v>
+        <v>2.104017853604711</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.06734302676087</v>
+        <v>13.03131193962306</v>
       </c>
       <c r="L18">
-        <v>9.734746982218558</v>
+        <v>7.400768061042275</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>26.05814226237912</v>
+        <v>16.29759076144517</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.90586708086286</v>
+        <v>16.79144142341208</v>
       </c>
       <c r="C19">
-        <v>9.464440167561024</v>
+        <v>6.936952004066381</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.28898575420881</v>
+        <v>8.695165086320749</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.668645189292553</v>
+        <v>2.104442627170334</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.05136683016373</v>
+        <v>12.98130804546285</v>
       </c>
       <c r="L19">
-        <v>9.732714235331111</v>
+        <v>7.382451982944553</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>26.06717585339907</v>
+        <v>16.31162792349302</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.00602464619022</v>
+        <v>17.12124417877933</v>
       </c>
       <c r="C20">
-        <v>9.459247255078829</v>
+        <v>6.923286344477142</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.28815685380925</v>
+        <v>8.755055988653137</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.668008324914997</v>
+        <v>2.102535989449509</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.12313012219383</v>
+        <v>13.20493921826661</v>
       </c>
       <c r="L20">
-        <v>9.741965448413833</v>
+        <v>7.46479922951057</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>26.02689268557317</v>
+        <v>16.24976433679849</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.33955888580841</v>
+        <v>18.19052962236773</v>
       </c>
       <c r="C21">
-        <v>9.442693247761104</v>
+        <v>6.879395358402292</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.28818045040184</v>
+        <v>8.961274548334023</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.665936042696909</v>
+        <v>2.096212171510895</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.3617376651712</v>
+        <v>13.93198015170064</v>
       </c>
       <c r="L21">
-        <v>9.774844965680542</v>
+        <v>7.739939113282898</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.89801252337419</v>
+        <v>16.06579497093679</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.55496157911283</v>
+        <v>18.86077810954428</v>
       </c>
       <c r="C22">
-        <v>9.432537672796535</v>
+        <v>6.852239955719567</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.29028408377276</v>
+        <v>9.099687894472176</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.664631774586567</v>
+        <v>2.092136237536445</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.51556880094988</v>
+        <v>14.38906781366262</v>
       </c>
       <c r="L22">
-        <v>9.797651697634615</v>
+        <v>7.918408341269574</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.81861111002218</v>
+        <v>15.96467723093722</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.44025568701306</v>
+        <v>18.5056483097469</v>
       </c>
       <c r="C23">
-        <v>9.437897349936025</v>
+        <v>6.866591868998952</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.28897062339385</v>
+        <v>9.025486513822004</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.665323317821454</v>
+        <v>2.094306701836372</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.43367474430163</v>
+        <v>14.14676064164732</v>
       </c>
       <c r="L23">
-        <v>9.78536010400366</v>
+        <v>7.823291738469261</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.86054660042144</v>
+        <v>16.01680905496055</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.0005347460539</v>
+        <v>17.10327980924388</v>
       </c>
       <c r="C24">
-        <v>9.459529057406291</v>
+        <v>6.924029236066234</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.28819179555823</v>
+        <v>8.751748063952148</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.668043043991194</v>
+        <v>2.102640373133741</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.11919801729163</v>
+        <v>13.19275008756647</v>
       </c>
       <c r="L24">
-        <v>9.741450604782568</v>
+        <v>7.460282322096237</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>26.02908054584444</v>
+        <v>16.25307497140492</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.51751842330736</v>
+        <v>15.46571692022198</v>
       </c>
       <c r="C25">
-        <v>9.48572690501922</v>
+        <v>6.992418350436794</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.29634719446753</v>
+        <v>8.472640079014242</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.671193172656671</v>
+        <v>2.111901332122907</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.772528901530826</v>
+        <v>12.08581246032597</v>
       </c>
       <c r="L25">
-        <v>9.699878943841593</v>
+        <v>7.064332968311677</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>26.23154026299241</v>
+        <v>16.58169469203753</v>
       </c>
     </row>
   </sheetData>
